--- a/medicine/Médecine vétérinaire/Micro-parasite_de_l'aquarium/Micro-parasite_de_l'aquarium.xlsx
+++ b/medicine/Médecine vétérinaire/Micro-parasite_de_l'aquarium/Micro-parasite_de_l'aquarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micro-parasite_de_l%27aquarium</t>
+          <t>Micro-parasite_de_l'aquarium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'espace confiné d'un aquarium, les micro-parasites trouvent de bonnes conditions pour se reproduire. Ce sont essentiellement des protozoaires, des bactéries et des champignons.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Micro-parasite_de_l%27aquarium</t>
+          <t>Micro-parasite_de_l'aquarium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,11 @@
           <t>Protozoaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protozoaires sont des organismes microscopiques formés d'une cellule unique, qui se nourrissent de bactéries et des déchets organiques ou qui parfois parasitent les poissons.
-Ichtyophtirius multifilis
-L'affection la plus connue qu'ils occasionnent est la maladie des points blancs affectant l'épiderme des poissons. C'est le protozoaire Ichthyophthirius multifiliis qui touche pratiquement tous les poissons d'aquarium.
-La contagion est favorisée par une eau trop fraîche ou des hôtes de l'aquarium contaminés.
-Oodinium
-L'Oodinium (en) est causé par Piscin Oodinium limneticum, un parasite microscopique du groupe des dinophycées classé parmi les algues mais dépourvus de chlorophylle. Il mesure 1/10 de millimètre. Son corps est muni d'un flagelle et non de cils comme l'Ichtyophtirius multifiliis. Les poissons touchés par ce micro-parasite présentent aussi des points blancs sur leur peau mais de taille plus petite que ceux causés par l'Ichtyophtirius multifiliis.
-Le moyen le plus simple et le moins cher de s'en débarrasser est le "Bleu de Méthyléne"  à raison de 5 gouttes par litre d'eau (Se trouve en pharmacie).
-La couleur bleue de l'eau disparaitra en quelques jours.
-Plistophora
-Le plistophora est un micro-parasite très difficile à identifier et à détruire.
 </t>
         </is>
       </c>
@@ -533,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Micro-parasite_de_l%27aquarium</t>
+          <t>Micro-parasite_de_l'aquarium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bactéries</t>
+          <t>Protozoaires</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pseudomonas
-Le Pseudomonas est une bactérie qui provoque l'hydropisie, ou gonflement du corps et hérissement des écailles.
+          <t>Ichtyophtirius multifilis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'affection la plus connue qu'ils occasionnent est la maladie des points blancs affectant l'épiderme des poissons. C'est le protozoaire Ichthyophthirius multifiliis qui touche pratiquement tous les poissons d'aquarium.
+La contagion est favorisée par une eau trop fraîche ou des hôtes de l'aquarium contaminés.
 </t>
         </is>
       </c>
@@ -565,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Micro-parasite_de_l%27aquarium</t>
+          <t>Micro-parasite_de_l'aquarium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Champignons</t>
+          <t>Protozoaires</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Saprolegnia
-Le saprolegnia est un champignon microscopique responsable de l'apparition d'une mousse sur la peau des poissons.
-Ichtyophonus</t>
+          <t>Oodinium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Oodinium (en) est causé par Piscin Oodinium limneticum, un parasite microscopique du groupe des dinophycées classé parmi les algues mais dépourvus de chlorophylle. Il mesure 1/10 de millimètre. Son corps est muni d'un flagelle et non de cils comme l'Ichtyophtirius multifiliis. Les poissons touchés par ce micro-parasite présentent aussi des points blancs sur leur peau mais de taille plus petite que ceux causés par l'Ichtyophtirius multifiliis.
+Le moyen le plus simple et le moins cher de s'en débarrasser est le "Bleu de Méthyléne"  à raison de 5 gouttes par litre d'eau (Se trouve en pharmacie).
+La couleur bleue de l'eau disparaitra en quelques jours.
+</t>
         </is>
       </c>
     </row>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Micro-parasite_de_l%27aquarium</t>
+          <t>Micro-parasite_de_l'aquarium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,12 +630,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vers parasites</t>
+          <t>Protozoaires</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gyrodactylus</t>
+          <t>Plistophora</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plistophora est un micro-parasite très difficile à identifier et à détruire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Micro-parasite_de_l'aquarium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Micro-parasite_de_l%27aquarium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bactéries</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pseudomonas</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pseudomonas est une bactérie qui provoque l'hydropisie, ou gonflement du corps et hérissement des écailles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Micro-parasite_de_l'aquarium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Micro-parasite_de_l%27aquarium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saprolegnia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saprolegnia est un champignon microscopique responsable de l'apparition d'une mousse sur la peau des poissons.
+</t>
         </is>
       </c>
     </row>
